--- a/UserProfile/excel/vimala.xlsx
+++ b/UserProfile/excel/vimala.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,12 +1823,10 @@
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>20350</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="n">
+      <c r="C27" t="n">
+        <v>20350</v>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>45183</v>
       </c>
       <c r="E27" t="inlineStr">
@@ -1841,15 +1839,11 @@
           <t>12:32</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>111.60</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
+      <c r="G27" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>87.59999999999999</v>
       </c>
       <c r="I27" t="n">
         <v>-24</v>
@@ -1875,12 +1869,10 @@
           <t>BANKNIFTY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>45800</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="n">
+      <c r="C28" t="n">
+        <v>45800</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>45183</v>
       </c>
       <c r="E28" t="inlineStr">
@@ -1893,15 +1885,11 @@
           <t>14:05</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>359.45</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>314.00</t>
-        </is>
+      <c r="G28" t="n">
+        <v>359.45</v>
+      </c>
+      <c r="H28" t="n">
+        <v>314</v>
       </c>
       <c r="I28" t="n">
         <v>-45.44999999999999</v>
@@ -1914,6 +1902,58 @@
       </c>
       <c r="L28" t="n">
         <v>41.2695078</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>45184</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10:51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>11:32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>111.25</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="J29" t="n">
+        <v>160</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3475.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>61.926004</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2155,6 +2195,37 @@
         <v>580.573851836</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20169.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20198.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22.84999999999927</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2284.999999999927</v>
+      </c>
+      <c r="I7" t="n">
+        <v>584.2775801600001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UserProfile/excel/vimala.xlsx
+++ b/UserProfile/excel/vimala.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,12 +1915,10 @@
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20500</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="n">
+      <c r="C29" t="n">
+        <v>20500</v>
+      </c>
+      <c r="D29" s="2" t="n">
         <v>45184</v>
       </c>
       <c r="E29" t="inlineStr">
@@ -1933,15 +1931,11 @@
           <t>11:32</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>111.25</t>
-        </is>
+      <c r="G29" t="n">
+        <v>89.53</v>
+      </c>
+      <c r="H29" t="n">
+        <v>111.25</v>
       </c>
       <c r="I29" t="n">
         <v>21.72</v>
@@ -1954,6 +1948,938 @@
       </c>
       <c r="L29" t="n">
         <v>61.926004</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>46200</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>12:14</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-25.89999999999998</v>
+      </c>
+      <c r="J30" t="n">
+        <v>45</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-1165.499999999999</v>
+      </c>
+      <c r="L30" t="n">
+        <v>43.07148408</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>20500</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>11:22</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>13:36</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-15.05</v>
+      </c>
+      <c r="J31" t="n">
+        <v>80</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-1204</v>
+      </c>
+      <c r="L31" t="n">
+        <v>35.59938880000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>20200</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>12:13</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>125.65</v>
+      </c>
+      <c r="H32" t="n">
+        <v>133.65</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>80</v>
+      </c>
+      <c r="K32" t="n">
+        <v>640</v>
+      </c>
+      <c r="L32" t="n">
+        <v>49.52415656</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10:29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>13:47</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="H33" t="n">
+        <v>26</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-25.75</v>
+      </c>
+      <c r="J33" t="n">
+        <v>50</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-1287.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>37.020034</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>19750</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>12:04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>14:41</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-7.15</v>
+      </c>
+      <c r="J34" t="n">
+        <v>50</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-357.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>35.524618</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>45000</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12:08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>15:05</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>339.1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>421.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>82.09999999999997</v>
+      </c>
+      <c r="J35" t="n">
+        <v>15</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1231.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>44.81274024</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>45000</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>11:37</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>281.35</v>
+      </c>
+      <c r="H36" t="n">
+        <v>295</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13.64999999999998</v>
+      </c>
+      <c r="J36" t="n">
+        <v>60</v>
+      </c>
+      <c r="K36" t="n">
+        <v>818.9999999999986</v>
+      </c>
+      <c r="L36" t="n">
+        <v>58.481136</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>19800</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>12:17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>86</v>
+      </c>
+      <c r="H37" t="n">
+        <v>86</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>150</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>51.475722</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>19600</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>110</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="J38" t="n">
+        <v>100</v>
+      </c>
+      <c r="K38" t="n">
+        <v>109.9999999999994</v>
+      </c>
+      <c r="L38" t="n">
+        <v>49.24548</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>44400</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10:38</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>210.85</v>
+      </c>
+      <c r="H39" t="n">
+        <v>162.05</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-48.79999999999998</v>
+      </c>
+      <c r="J39" t="n">
+        <v>45</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-2195.999999999999</v>
+      </c>
+      <c r="L39" t="n">
+        <v>44.48745610499999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>19650</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="H40" t="n">
+        <v>48</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>100</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-1970</v>
+      </c>
+      <c r="L40" t="n">
+        <v>41.381664</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>231.55</v>
+      </c>
+      <c r="H41" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-67.75</v>
+      </c>
+      <c r="J41" t="n">
+        <v>30</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-2032.5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>41.52372852</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>19650</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="H42" t="n">
+        <v>48</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>100</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-1970</v>
+      </c>
+      <c r="L42" t="n">
+        <v>41.381664</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>44600</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>231.55</v>
+      </c>
+      <c r="H43" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-67.75</v>
+      </c>
+      <c r="J43" t="n">
+        <v>30</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-2032.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>41.52372852</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>19550</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>14:20</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>141.45</v>
+      </c>
+      <c r="I44" t="n">
+        <v>83.34999999999999</v>
+      </c>
+      <c r="J44" t="n">
+        <v>50</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4167.5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>49.42298305000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>44200</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10:35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>11:09</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>190.35</v>
+      </c>
+      <c r="H45" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-79.75</v>
+      </c>
+      <c r="J45" t="n">
+        <v>15</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1196.25</v>
+      </c>
+      <c r="L45" t="n">
+        <v>37.46741262</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>44700</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>10:23</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>11:47</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>261.05</v>
+      </c>
+      <c r="I46" t="n">
+        <v>142.75</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2141.25</v>
+      </c>
+      <c r="L46" t="n">
+        <v>42.956291835</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>19650</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>13:23</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>50</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1190</v>
+      </c>
+      <c r="L47" t="n">
+        <v>35.711545</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>19800</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>45198</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>55.25</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>6.700000000000003</v>
+      </c>
+      <c r="J48" t="n">
+        <v>160</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1072</v>
+      </c>
+      <c r="L48" t="n">
+        <v>49.09213616</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>44600</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>45198</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>230.50</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>210.35</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>-20.15000000000001</v>
+      </c>
+      <c r="J49" t="n">
+        <v>60</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1209</v>
+      </c>
+      <c r="L49" t="n">
+        <v>51.12803778000001</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +2911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2226,6 +3152,192 @@
         <v>584.2775801600001</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19966.3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19861.05</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>97.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9725</v>
+      </c>
+      <c r="I8" t="n">
+        <v>575.8502718899999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19782.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19790</v>
+      </c>
+      <c r="E9" t="n">
+        <v>53.55</v>
+      </c>
+      <c r="F9" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-9.000000000000725</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-900.0000000000725</v>
+      </c>
+      <c r="I9" t="n">
+        <v>581.0266835</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19702.65</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19689.87</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.210000000002474</v>
+      </c>
+      <c r="H10" t="n">
+        <v>921.0000000002474</v>
+      </c>
+      <c r="I10" t="n">
+        <v>575.5030390460001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19702.65</v>
+      </c>
+      <c r="D11" t="n">
+        <v>19689.87</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.210000000002474</v>
+      </c>
+      <c r="H11" t="n">
+        <v>921.0000000002474</v>
+      </c>
+      <c r="I11" t="n">
+        <v>575.5030390460001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19678.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19623.15</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-50.75</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-5075</v>
+      </c>
+      <c r="I12" t="n">
+        <v>574.9592308700001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19712.87</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19720.55</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-7.680000000000291</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-768.0000000000291</v>
+      </c>
+      <c r="I13" t="n">
+        <v>573.70882309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
